--- a/設計書/01_基本設計（外部設計）/04_データベース設計/テーブル設計.xlsx
+++ b/設計書/01_基本設計（外部設計）/04_データベース設計/テーブル設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21555" windowHeight="12555" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21555" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="コードマスタ" sheetId="4" r:id="rId3"/>
     <sheet name="役割マスタ" sheetId="5" r:id="rId4"/>
     <sheet name="ユーザマスタ" sheetId="6" r:id="rId5"/>
-    <sheet name="ユーザ役割マスタ" sheetId="7" r:id="rId6"/>
-    <sheet name="月報管理テーブル" sheetId="8" r:id="rId7"/>
-    <sheet name="月報管理テーブル（履歴）" sheetId="9" r:id="rId8"/>
+    <sheet name="ユーザ承認フローマスタ" sheetId="7" r:id="rId6"/>
+    <sheet name="ユーザ役割マスタ" sheetId="8" r:id="rId7"/>
+    <sheet name="月報テーブル" sheetId="9" r:id="rId8"/>
+    <sheet name="月報承認フローテーブル" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="124">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -47,7 +48,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2016/08/26</t>
+    <t>2016/09/21</t>
   </si>
   <si>
     <t>エンティティ一覧</t>
@@ -83,22 +84,28 @@
     <t>M_USER</t>
   </si>
   <si>
+    <t>ユーザ承認フローマスタ</t>
+  </si>
+  <si>
+    <t>M_USER_APPROVE_FLOW</t>
+  </si>
+  <si>
     <t>ユーザ役割マスタ</t>
   </si>
   <si>
     <t>M_USER_ROLE</t>
   </si>
   <si>
-    <t>月報管理テーブル</t>
+    <t>月報テーブル</t>
   </si>
   <si>
     <t>T_REPORT</t>
   </si>
   <si>
-    <t>月報管理テーブル（履歴）</t>
-  </si>
-  <si>
-    <t>T_REPORT_HIS</t>
+    <t>月報承認フローテーブル</t>
+  </si>
+  <si>
+    <t>T_REPORT_APPROVE_FLOW</t>
   </si>
   <si>
     <t>エンティティ情報</t>
@@ -212,7 +219,7 @@
     <t>ins_date</t>
   </si>
   <si>
-    <t>timestamp</t>
+    <t>datetime</t>
   </si>
   <si>
     <t>登録ID</t>
@@ -305,22 +312,25 @@
     <t>email</t>
   </si>
   <si>
-    <t>承認者ID1</t>
-  </si>
-  <si>
-    <t>approve_user_id1</t>
-  </si>
-  <si>
-    <t>承認者ID2</t>
-  </si>
-  <si>
-    <t>approve_user_id2</t>
-  </si>
-  <si>
-    <t>承認者ID3</t>
-  </si>
-  <si>
-    <t>approve_user_id3</t>
+    <t>部署ID</t>
+  </si>
+  <si>
+    <t>departmen_id</t>
+  </si>
+  <si>
+    <t>コードマスタ：D001</t>
+  </si>
+  <si>
+    <t>承認SEQ</t>
+  </si>
+  <si>
+    <t>approve_seq</t>
+  </si>
+  <si>
+    <t>承認者ID</t>
+  </si>
+  <si>
+    <t>approve_user_id</t>
   </si>
   <si>
     <t>申請者ID</t>
@@ -350,6 +360,21 @@
     <t>varchar(1)</t>
   </si>
   <si>
+    <t>コードマスタ：B001</t>
+  </si>
+  <si>
+    <t>月報ファイルパス</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
     <t>承認状況</t>
   </si>
   <si>
@@ -359,19 +384,16 @@
     <t>varchar(3)</t>
   </si>
   <si>
-    <t>月報ファイルパス</t>
-  </si>
-  <si>
-    <t>file_path</t>
+    <t>コードマスタ：A001</t>
   </si>
   <si>
     <t>apply_user_id,target_ym</t>
   </si>
   <si>
-    <t>連番</t>
-  </si>
-  <si>
-    <t>seq</t>
+    <t>承認日</t>
+  </si>
+  <si>
+    <t>approve_date</t>
   </si>
 </sst>
 </file>
@@ -409,7 +431,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -445,7 +467,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -462,7 +484,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -470,7 +492,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1557,9 +1579,7 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2087,7 +2107,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2186,18 +2206,31 @@
       <c r="D7" s="26"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+    <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11"/>
@@ -2205,9 +2238,10 @@
     <hyperlink ref="C3" location="'コードマスタ'!A1" display="'コードマスタ'!A1"/>
     <hyperlink ref="C4" location="'役割マスタ'!A1" display="'役割マスタ'!A1"/>
     <hyperlink ref="C5" location="'ユーザマスタ'!A1" display="'ユーザマスタ'!A1"/>
-    <hyperlink ref="C6" location="'ユーザ役割マスタ'!A1" display="'ユーザ役割マスタ'!A1"/>
-    <hyperlink ref="C7" location="'月報管理テーブル'!A1" display="'月報管理テーブル'!A1"/>
-    <hyperlink ref="C8" location="'月報管理テーブル（履歴）'!A1" display="'月報管理テーブル（履歴）'!A1"/>
+    <hyperlink ref="C6" location="'ユーザ承認フローマスタ'!A1" display="'ユーザ承認フローマスタ'!A1"/>
+    <hyperlink ref="C7" location="'ユーザ役割マスタ'!A1" display="'ユーザ役割マスタ'!A1"/>
+    <hyperlink ref="C8" location="'月報テーブル'!A1" display="'月報テーブル'!A1"/>
+    <hyperlink ref="C9" location="'月報承認フローテーブル'!A1" display="'月報承認フローテーブル'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2239,7 +2273,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
@@ -2274,14 +2308,14 @@
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="15"/>
@@ -2348,7 +2382,7 @@
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -2356,19 +2390,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>4</v>
@@ -2379,22 +2413,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -2402,22 +2436,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -2425,22 +2459,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -2448,22 +2482,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -2471,20 +2505,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -2492,20 +2526,20 @@
         <v>6</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -2513,20 +2547,20 @@
         <v>7</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -2534,20 +2568,20 @@
         <v>8</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -2555,22 +2589,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -2578,22 +2612,22 @@
         <v>10</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="51" t="s">
-        <v>58</v>
-      </c>
       <c r="E23" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -2601,22 +2635,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -2624,22 +2658,22 @@
         <v>12</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -2647,22 +2681,22 @@
         <v>13</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -2670,27 +2704,27 @@
         <v>14</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F27" s="61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -2698,15 +2732,15 @@
         <v>10</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="67"/>
       <c r="F30" s="64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G30" s="68" t="s">
         <v>4</v>
@@ -2714,7 +2748,7 @@
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2722,23 +2756,23 @@
         <v>10</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="70"/>
       <c r="G33" s="68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2746,18 +2780,18 @@
         <v>10</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D36" s="67"/>
       <c r="E36" s="69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F36" s="70"/>
       <c r="G36" s="68" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
@@ -2843,14 +2877,14 @@
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="15"/>
@@ -2917,7 +2951,7 @@
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -2925,19 +2959,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>4</v>
@@ -2948,22 +2982,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -2971,22 +3005,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -2994,20 +3028,20 @@
         <v>3</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3015,22 +3049,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3038,22 +3072,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="51" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -3061,22 +3095,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -3084,22 +3118,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -3107,22 +3141,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -3130,27 +3164,27 @@
         <v>9</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -3158,15 +3192,15 @@
         <v>10</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="67"/>
       <c r="F25" s="64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G25" s="68" t="s">
         <v>4</v>
@@ -3174,7 +3208,7 @@
     </row>
     <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3182,23 +3216,23 @@
         <v>10</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F28" s="70"/>
       <c r="G28" s="68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
@@ -3206,18 +3240,18 @@
         <v>10</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D31" s="77"/>
       <c r="E31" s="78" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F31" s="79"/>
       <c r="G31" s="56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3225,18 +3259,18 @@
         <v>1</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D32" s="73"/>
       <c r="E32" s="72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F32" s="73"/>
       <c r="G32" s="50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3307,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3289,7 +3323,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
@@ -3324,14 +3358,14 @@
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="15"/>
@@ -3398,7 +3432,7 @@
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -3406,19 +3440,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>4</v>
@@ -3429,22 +3463,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -3452,22 +3486,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -3475,22 +3509,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3498,20 +3532,20 @@
         <v>4</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3519,20 +3553,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -3540,20 +3574,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="51"/>
+        <v>60</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>45</v>
+      </c>
       <c r="F19" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -3561,20 +3597,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="51"/>
+        <v>60</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -3582,22 +3620,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -3605,22 +3643,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -3628,192 +3666,167 @@
         <v>10</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28">
         <v>11</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="25">
-        <v>12</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>28</v>
+      <c r="B24" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
-        <v>13</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
-        <v>70</v>
+      <c r="A26" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="B30" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="65" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
+      <c r="D30" s="67"/>
+      <c r="E30" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="70"/>
+      <c r="G30" s="68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="68" t="s">
+      <c r="B33" s="45" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48">
+      <c r="C33" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="77"/>
+      <c r="E33" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="79"/>
+      <c r="G33" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="31">
         <v>1</v>
       </c>
-      <c r="B36" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="72" t="s">
+      <c r="B34" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="81"/>
+      <c r="E34" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="50" t="s">
-        <v>87</v>
+      <c r="F34" s="81"/>
+      <c r="G34" s="55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28">
+        <v>2</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="75"/>
+      <c r="E35" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="75"/>
+      <c r="G35" s="53" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -3856,7 +3869,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
@@ -3891,14 +3904,14 @@
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="15"/>
@@ -3965,7 +3978,7 @@
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -3973,19 +3986,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>4</v>
@@ -3996,22 +4009,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -4019,22 +4032,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -4042,22 +4055,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -4065,22 +4078,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="D17" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="51" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -4094,16 +4107,16 @@
         <v>62</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -4111,22 +4124,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="D19" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="51" t="s">
-        <v>38</v>
-      </c>
       <c r="E19" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -4140,16 +4153,499 @@
         <v>67</v>
       </c>
       <c r="D20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="25">
+        <v>8</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28">
+        <v>9</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="77"/>
+      <c r="E28" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="79"/>
+      <c r="G28" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="48">
+        <v>1</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="73"/>
+      <c r="E29" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="70"/>
+      <c r="G32" s="68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="37" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="37" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="41"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="31">
+        <v>1</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="25">
+        <v>4</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="25">
+        <v>5</v>
+      </c>
+      <c r="B18" s="51" t="s">
         <v>63</v>
       </c>
+      <c r="C18" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="25">
+        <v>6</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="25">
+        <v>7</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>65</v>
+      </c>
       <c r="E20" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -4157,27 +4653,27 @@
         <v>8</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -4185,15 +4681,15 @@
         <v>10</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="66"/>
       <c r="E24" s="67"/>
       <c r="F24" s="64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G24" s="68" t="s">
         <v>4</v>
@@ -4201,7 +4697,7 @@
     </row>
     <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
@@ -4209,18 +4705,18 @@
         <v>10</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" s="77"/>
       <c r="E27" s="78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F27" s="79"/>
       <c r="G27" s="56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
@@ -4228,10 +4724,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="80" t="s">
@@ -4239,7 +4735,7 @@
       </c>
       <c r="F28" s="81"/>
       <c r="G28" s="55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4247,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="75"/>
       <c r="E29" s="74" t="s">
@@ -4258,12 +4754,12 @@
       </c>
       <c r="F29" s="75"/>
       <c r="G29" s="53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4271,18 +4767,18 @@
         <v>10</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F32" s="70"/>
       <c r="G32" s="68" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4316,12 +4812,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4337,7 +4833,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
@@ -4372,14 +4868,14 @@
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="15"/>
@@ -4389,7 +4885,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="46" t="s">
@@ -4403,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="47"/>
@@ -4446,7 +4942,7 @@
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -4454,19 +4950,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>4</v>
@@ -4477,22 +4973,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -4500,22 +4996,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -4523,22 +5019,20 @@
         <v>3</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>43</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E16" s="51"/>
       <c r="F16" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -4546,22 +5040,20 @@
         <v>4</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>43</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E17" s="51"/>
       <c r="F17" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -4569,22 +5061,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E18" s="51"/>
       <c r="F18" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -4592,20 +5082,20 @@
         <v>6</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -4613,20 +5103,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="51"/>
+        <v>119</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -4634,22 +5126,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -4657,22 +5149,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -4680,22 +5172,22 @@
         <v>10</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -4703,22 +5195,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -4726,192 +5218,146 @@
         <v>12</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28">
         <v>13</v>
       </c>
-      <c r="B26" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="25">
-        <v>14</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>28</v>
+      <c r="B26" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
-        <v>15</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>70</v>
+      <c r="A28" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="B32" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="65" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63" t="s">
+      <c r="D32" s="67"/>
+      <c r="E32" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="70"/>
+      <c r="G32" s="68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="68" t="s">
+      <c r="B35" s="45" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="77"/>
-      <c r="E37" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="79"/>
-      <c r="G37" s="56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48">
+      <c r="C35" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="77"/>
+      <c r="E35" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="79"/>
+      <c r="G35" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="48">
         <v>1</v>
       </c>
-      <c r="B38" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="50" t="s">
-        <v>114</v>
+      <c r="B36" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="73"/>
+      <c r="E36" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="73"/>
+      <c r="G36" s="50" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -4933,14 +5379,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4954,7 +5400,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
@@ -4989,14 +5435,14 @@
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="15"/>
@@ -5006,7 +5452,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="46" t="s">
@@ -5020,7 +5466,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="47"/>
@@ -5063,7 +5509,7 @@
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -5071,19 +5517,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>4</v>
@@ -5094,22 +5540,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -5117,22 +5563,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -5140,22 +5586,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -5163,22 +5609,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -5186,22 +5632,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>43</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E18" s="51"/>
       <c r="F18" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -5209,22 +5653,20 @@
         <v>6</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E19" s="51"/>
       <c r="F19" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -5232,20 +5674,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="51"/>
+        <v>60</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -5253,20 +5697,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="51"/>
+        <v>60</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -5274,22 +5720,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -5297,22 +5743,22 @@
         <v>10</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -5320,238 +5766,146 @@
         <v>11</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28">
         <v>12</v>
       </c>
-      <c r="B25" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="25">
-        <v>13</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="25">
-        <v>14</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="25">
-        <v>15</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
-        <v>16</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="B25" s="52" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
+      <c r="C25" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="64" t="s">
+      <c r="B28" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="C28" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="68" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="79"/>
+      <c r="G31" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="48">
+        <v>1</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="73"/>
+      <c r="E32" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="73"/>
+      <c r="G32" s="50" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="65" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48">
-        <v>1</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="68" t="s">
-        <v>80</v>
+      <c r="D35" s="67"/>
+      <c r="E35" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="70"/>
+      <c r="G35" s="68" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E39:F39"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
